--- a/modelos/OBACER4421149/OBACER4421149_Sell Out_metricas.xlsx
+++ b/modelos/OBACER4421149/OBACER4421149_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>93.40790968146295</v>
+        <v>93.31813079907251</v>
       </c>
       <c r="C2" t="n">
-        <v>44.21238934799632</v>
+        <v>45.58299270767115</v>
       </c>
       <c r="D2" t="n">
-        <v>142.0616277642792</v>
+        <v>145.6200066129713</v>
       </c>
       <c r="E2" t="n">
         <v>113</v>
@@ -496,13 +496,13 @@
         <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>96.3340060747993</v>
+        <v>95.97673319293411</v>
       </c>
       <c r="C3" t="n">
-        <v>45.93260727702955</v>
+        <v>46.81999751268597</v>
       </c>
       <c r="D3" t="n">
-        <v>143.5508497576068</v>
+        <v>146.1017769466895</v>
       </c>
       <c r="E3" t="n">
         <v>115</v>
@@ -577,22 +577,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>366.1346661326712</v>
+        <v>374.6303276276167</v>
       </c>
       <c r="C2" t="n">
-        <v>19.13464570178061</v>
+        <v>19.35536947794117</v>
       </c>
       <c r="D2" t="n">
-        <v>19.12904212186887</v>
+        <v>19.35256800399669</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1678471604532297</v>
+        <v>0.1697977725011585</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1678471604532297</v>
+        <v>0.1697977725011585</v>
       </c>
       <c r="G2" t="n">
-        <v>0.183243891928894</v>
+        <v>0.1855633377337826</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>

--- a/modelos/OBACER4421149/OBACER4421149_Sell Out_metricas.xlsx
+++ b/modelos/OBACER4421149/OBACER4421149_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>93.31813079907251</v>
+        <v>93.31813079912602</v>
       </c>
       <c r="C2" t="n">
-        <v>45.58299270767115</v>
+        <v>48.6853829478822</v>
       </c>
       <c r="D2" t="n">
-        <v>145.6200066129713</v>
+        <v>145.4383610184937</v>
       </c>
       <c r="E2" t="n">
         <v>113</v>
@@ -496,13 +496,13 @@
         <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>95.97673319293411</v>
+        <v>95.97673328730313</v>
       </c>
       <c r="C3" t="n">
-        <v>46.81999751268597</v>
+        <v>47.61053750092233</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1017769466895</v>
+        <v>145.0403439362285</v>
       </c>
       <c r="E3" t="n">
         <v>115</v>
@@ -577,22 +577,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>374.6303276276167</v>
+        <v>374.6303258313561</v>
       </c>
       <c r="C2" t="n">
-        <v>19.35536947794117</v>
+        <v>19.35536943153905</v>
       </c>
       <c r="D2" t="n">
-        <v>19.35256800399669</v>
+        <v>19.35256795678542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1697977725011585</v>
+        <v>0.1697977720906215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1697977725011585</v>
+        <v>0.1697977720906215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1855633377337826</v>
+        <v>0.185563337245871</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>

--- a/modelos/OBACER4421149/OBACER4421149_Sell Out_metricas.xlsx
+++ b/modelos/OBACER4421149/OBACER4421149_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>93.31813079912602</v>
       </c>
       <c r="C2" t="n">
-        <v>48.6853829478822</v>
+        <v>41.3190851700484</v>
       </c>
       <c r="D2" t="n">
-        <v>145.4383610184937</v>
+        <v>142.4753363344564</v>
       </c>
       <c r="E2" t="n">
         <v>113</v>
@@ -499,10 +499,10 @@
         <v>95.97673328730313</v>
       </c>
       <c r="C3" t="n">
-        <v>47.61053750092233</v>
+        <v>45.65911261947686</v>
       </c>
       <c r="D3" t="n">
-        <v>145.0403439362285</v>
+        <v>143.3084033279759</v>
       </c>
       <c r="E3" t="n">
         <v>115</v>
